--- a/vocational-rates.xlsx
+++ b/vocational-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fd06676eeea000b/Documents/GitHub/ecox-5004-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:40009_{DAA1370C-7CA5-4898-8D35-55B9BB1601BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADADD602-9D8D-47CE-8172-EF91C92337AA}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:40009_{DAA1370C-7CA5-4898-8D35-55B9BB1601BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1658731-F355-47DD-B9E2-1DF315610CF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocational-binary" sheetId="3" r:id="rId1"/>
@@ -1084,7 +1084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1257,200 +1259,200 @@
         <v>62</v>
       </c>
       <c r="D2">
-        <f>IF('vocational-rates'!E2 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
         <f>IF('vocational-rates'!F2 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E2">
+        <f>IF('vocational-rates'!F31 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F2">
-        <f>IF('vocational-rates'!G2 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F60 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>IF('vocational-rates'!H2 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F89 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>IF('vocational-rates'!I2 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F118 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>IF('vocational-rates'!J2 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F147 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>IF('vocational-rates'!K2 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F176 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>IF('vocational-rates'!L2 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F205 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>IF('vocational-rates'!M2 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F234 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>IF('vocational-rates'!N2 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F263 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>IF('vocational-rates'!O2 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F292 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f>IF('vocational-rates'!P2 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F321 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f>IF('vocational-rates'!Q2 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F350 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>IF('vocational-rates'!R2 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F379 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f>IF('vocational-rates'!S2 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F408 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>IF('vocational-rates'!T2 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F437 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>IF('vocational-rates'!U2 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F466 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>IF('vocational-rates'!V2 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F495 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>IF('vocational-rates'!W2 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F524 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f>IF('vocational-rates'!X2 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F553 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f>IF('vocational-rates'!Y2 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F582 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>IF('vocational-rates'!Z2 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F611 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f>IF('vocational-rates'!AA2 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F640 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f>IF('vocational-rates'!AB2 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F669 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f>IF('vocational-rates'!AC2 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F698 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f>IF('vocational-rates'!AD2 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F727 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f>IF('vocational-rates'!AE2 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F756 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f>IF('vocational-rates'!AF2 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F785 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f>IF('vocational-rates'!AG2 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F814 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f>IF('vocational-rates'!AH2 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F843 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f>IF('vocational-rates'!AI2 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F872 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>IF('vocational-rates'!AJ2 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F901 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f>IF('vocational-rates'!AK2 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F930 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f>IF('vocational-rates'!AL2 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F959 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <f>IF('vocational-rates'!AM2 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F988 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <f>IF('vocational-rates'!AN2 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1017 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <f>IF('vocational-rates'!AO2 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1046 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <f>IF('vocational-rates'!AP2 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1075 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <f>IF('vocational-rates'!AQ2 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1104 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <f>IF('vocational-rates'!AR2 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1133 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <f>IF('vocational-rates'!AS2 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1162 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <f>IF('vocational-rates'!AT2 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1191 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <f>IF('vocational-rates'!AU2 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1220 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <f>IF('vocational-rates'!AV2 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1249 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <f>IF('vocational-rates'!AW2 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1278 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <f>IF('vocational-rates'!AX2 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1307 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <f>IF('vocational-rates'!AY2 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1336 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <f>IF('vocational-rates'!AZ2 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1365 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <f>IF('vocational-rates'!BA2 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1394 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1464,200 +1466,200 @@
         <v>62</v>
       </c>
       <c r="D3">
-        <f>IF('vocational-rates'!E3 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
         <f>IF('vocational-rates'!F3 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E3">
+        <f>IF('vocational-rates'!F32 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F3">
-        <f>IF('vocational-rates'!G3 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F61 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>IF('vocational-rates'!H3 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F90 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>IF('vocational-rates'!I3 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F119 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>IF('vocational-rates'!J3 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F148 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>IF('vocational-rates'!K3 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F177 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>IF('vocational-rates'!L3 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F206 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>IF('vocational-rates'!M3 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F235 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>IF('vocational-rates'!N3 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F264 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>IF('vocational-rates'!O3 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F293 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f>IF('vocational-rates'!P3 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F322 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f>IF('vocational-rates'!Q3 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F351 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>IF('vocational-rates'!R3 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F380 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R3">
-        <f>IF('vocational-rates'!S3 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F409 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f>IF('vocational-rates'!T3 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F438 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f>IF('vocational-rates'!U3 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F467 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f>IF('vocational-rates'!V3 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F496 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f>IF('vocational-rates'!W3 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F525 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f>IF('vocational-rates'!X3 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F554 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f>IF('vocational-rates'!Y3 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F583 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <f>IF('vocational-rates'!Z3 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F612 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f>IF('vocational-rates'!AA3 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F641 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f>IF('vocational-rates'!AB3 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F670 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f>IF('vocational-rates'!AC3 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F699 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f>IF('vocational-rates'!AD3 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F728 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <f>IF('vocational-rates'!AE3 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F757 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <f>IF('vocational-rates'!AF3 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F786 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f>IF('vocational-rates'!AG3 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F815 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <f>IF('vocational-rates'!AH3 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F844 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <f>IF('vocational-rates'!AI3 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F873 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <f>IF('vocational-rates'!AJ3 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F902 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <f>IF('vocational-rates'!AK3 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F931 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <f>IF('vocational-rates'!AL3 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F960 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <f>IF('vocational-rates'!AM3 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F989 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <f>IF('vocational-rates'!AN3 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1018 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <f>IF('vocational-rates'!AO3 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1047 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <f>IF('vocational-rates'!AP3 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1076 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <f>IF('vocational-rates'!AQ3 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1105 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <f>IF('vocational-rates'!AR3 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1134 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <f>IF('vocational-rates'!AS3 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1163 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <f>IF('vocational-rates'!AT3 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1192 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <f>IF('vocational-rates'!AU3 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1221 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <f>IF('vocational-rates'!AV3 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1250 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <f>IF('vocational-rates'!AW3 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1279 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <f>IF('vocational-rates'!AX3 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1308 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <f>IF('vocational-rates'!AY3 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1337 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <f>IF('vocational-rates'!AZ3 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1366 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <f>IF('vocational-rates'!BA3 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1395 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1671,200 +1673,200 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <f>IF('vocational-rates'!E4 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
         <f>IF('vocational-rates'!F4 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E4">
+        <f>IF('vocational-rates'!F33 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F4">
-        <f>IF('vocational-rates'!G4 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F62 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f>IF('vocational-rates'!H4 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F91 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f>IF('vocational-rates'!I4 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F120 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f>IF('vocational-rates'!J4 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F149 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>IF('vocational-rates'!K4 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F178 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>IF('vocational-rates'!L4 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F207 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f>IF('vocational-rates'!M4 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F236 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M4">
-        <f>IF('vocational-rates'!N4 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F265 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>IF('vocational-rates'!O4 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F294 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O4">
-        <f>IF('vocational-rates'!P4 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F323 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P4">
-        <f>IF('vocational-rates'!Q4 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F352 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IF('vocational-rates'!R4 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F381 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>IF('vocational-rates'!S4 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F410 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>IF('vocational-rates'!T4 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F439 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>IF('vocational-rates'!U4 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F468 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>IF('vocational-rates'!V4 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F497 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>IF('vocational-rates'!W4 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F526 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>IF('vocational-rates'!X4 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F555 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>IF('vocational-rates'!Y4 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F584 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>IF('vocational-rates'!Z4 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F613 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>IF('vocational-rates'!AA4 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F642 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>IF('vocational-rates'!AB4 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F671 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>IF('vocational-rates'!AC4 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F700 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>IF('vocational-rates'!AD4 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F729 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>IF('vocational-rates'!AE4 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F758 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>IF('vocational-rates'!AF4 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F787 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>IF('vocational-rates'!AG4 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F816 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <f>IF('vocational-rates'!AH4 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F845 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <f>IF('vocational-rates'!AI4 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F874 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <f>IF('vocational-rates'!AJ4 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F903 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <f>IF('vocational-rates'!AK4 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F932 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <f>IF('vocational-rates'!AL4 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F961 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <f>IF('vocational-rates'!AM4 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F990 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <f>IF('vocational-rates'!AN4 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1019 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <f>IF('vocational-rates'!AO4 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1048 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <f>IF('vocational-rates'!AP4 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1077 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <f>IF('vocational-rates'!AQ4 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1106 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <f>IF('vocational-rates'!AR4 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1135 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <f>IF('vocational-rates'!AS4 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1164 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <f>IF('vocational-rates'!AT4 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1193 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <f>IF('vocational-rates'!AU4 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1222 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <f>IF('vocational-rates'!AV4 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1251 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <f>IF('vocational-rates'!AW4 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1280 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <f>IF('vocational-rates'!AX4 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1309 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <f>IF('vocational-rates'!AY4 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1338 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <f>IF('vocational-rates'!AZ4 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1367 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <f>IF('vocational-rates'!BA4 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1396 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1878,200 +1880,200 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <f>IF('vocational-rates'!E5 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
         <f>IF('vocational-rates'!F5 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E5">
+        <f>IF('vocational-rates'!F34 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F5">
-        <f>IF('vocational-rates'!G5 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F63 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>IF('vocational-rates'!H5 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F92 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>IF('vocational-rates'!I5 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F121 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>IF('vocational-rates'!J5 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F150 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>IF('vocational-rates'!K5 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F179 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>IF('vocational-rates'!L5 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F208 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>IF('vocational-rates'!M5 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F237 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>IF('vocational-rates'!N5 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F266 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>IF('vocational-rates'!O5 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F295 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>IF('vocational-rates'!P5 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F324 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>IF('vocational-rates'!Q5 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F353 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>IF('vocational-rates'!R5 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F382 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>IF('vocational-rates'!S5 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F411 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>IF('vocational-rates'!T5 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F440 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f>IF('vocational-rates'!U5 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F469 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f>IF('vocational-rates'!V5 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F498 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f>IF('vocational-rates'!W5 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F527 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f>IF('vocational-rates'!X5 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F556 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f>IF('vocational-rates'!Y5 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F585 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f>IF('vocational-rates'!Z5 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F614 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f>IF('vocational-rates'!AA5 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F643 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f>IF('vocational-rates'!AB5 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F672 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f>IF('vocational-rates'!AC5 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F701 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f>IF('vocational-rates'!AD5 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F730 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f>IF('vocational-rates'!AE5 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F759 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f>IF('vocational-rates'!AF5 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F788 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f>IF('vocational-rates'!AG5 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F817 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f>IF('vocational-rates'!AH5 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F846 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <f>IF('vocational-rates'!AI5 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F875 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f>IF('vocational-rates'!AJ5 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F904 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <f>IF('vocational-rates'!AK5 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F933 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <f>IF('vocational-rates'!AL5 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F962 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <f>IF('vocational-rates'!AM5 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F991 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <f>IF('vocational-rates'!AN5 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1020 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <f>IF('vocational-rates'!AO5 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1049 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <f>IF('vocational-rates'!AP5 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1078 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <f>IF('vocational-rates'!AQ5 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1107 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <f>IF('vocational-rates'!AR5 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1136 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <f>IF('vocational-rates'!AS5 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1165 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <f>IF('vocational-rates'!AT5 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1194 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <f>IF('vocational-rates'!AU5 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1223 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <f>IF('vocational-rates'!AV5 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1252 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <f>IF('vocational-rates'!AW5 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1281 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <f>IF('vocational-rates'!AX5 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1310 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <f>IF('vocational-rates'!AY5 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1339 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <f>IF('vocational-rates'!AZ5 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1368 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <f>IF('vocational-rates'!BA5 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1397 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2085,199 +2087,199 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <f>IF('vocational-rates'!E6 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F6 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>IF('vocational-rates'!F6 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F35 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>IF('vocational-rates'!G6 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F64 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>IF('vocational-rates'!H6 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F93 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>IF('vocational-rates'!I6 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F122 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IF('vocational-rates'!J6 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F151 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IF('vocational-rates'!K6 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F180 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IF('vocational-rates'!L6 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F209 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IF('vocational-rates'!M6 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F238 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>IF('vocational-rates'!N6 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F267 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IF('vocational-rates'!O6 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F296 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>IF('vocational-rates'!P6 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F325 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IF('vocational-rates'!Q6 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F354 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>IF('vocational-rates'!R6 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F383 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>IF('vocational-rates'!S6 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F412 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>IF('vocational-rates'!T6 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F441 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>IF('vocational-rates'!U6 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F470 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>IF('vocational-rates'!V6 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F499 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>IF('vocational-rates'!W6 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F528 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>IF('vocational-rates'!X6 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F557 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>IF('vocational-rates'!Y6 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F586 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>IF('vocational-rates'!Z6 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F615 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>IF('vocational-rates'!AA6 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F644 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>IF('vocational-rates'!AB6 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F673 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>IF('vocational-rates'!AC6 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F702 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>IF('vocational-rates'!AD6 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F731 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>IF('vocational-rates'!AE6 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F760 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>IF('vocational-rates'!AF6 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F789 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>IF('vocational-rates'!AG6 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F818 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>IF('vocational-rates'!AH6 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F847 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>IF('vocational-rates'!AI6 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F876 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>IF('vocational-rates'!AJ6 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F905 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>IF('vocational-rates'!AK6 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F934 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>IF('vocational-rates'!AL6 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F963 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>IF('vocational-rates'!AM6 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F992 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>IF('vocational-rates'!AN6 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1021 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>IF('vocational-rates'!AO6 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1050 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>IF('vocational-rates'!AP6 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1079 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>IF('vocational-rates'!AQ6 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1108 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ6">
-        <f>IF('vocational-rates'!AR6 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1137 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR6">
-        <f>IF('vocational-rates'!AS6 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1166 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS6">
-        <f>IF('vocational-rates'!AT6 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1195 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT6">
-        <f>IF('vocational-rates'!AU6 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1224 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU6">
-        <f>IF('vocational-rates'!AV6 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1253 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV6">
-        <f>IF('vocational-rates'!AW6 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1282 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW6">
-        <f>IF('vocational-rates'!AX6 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1311 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX6">
-        <f>IF('vocational-rates'!AY6 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1340 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY6">
-        <f>IF('vocational-rates'!AZ6 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1369 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ6">
-        <f>IF('vocational-rates'!BA6 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1398 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2292,200 +2294,200 @@
         <v>62</v>
       </c>
       <c r="D7">
-        <f>IF('vocational-rates'!E7 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E7">
         <f>IF('vocational-rates'!F7 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E7">
+        <f>IF('vocational-rates'!F36 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F7">
-        <f>IF('vocational-rates'!G7 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F65 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>IF('vocational-rates'!H7 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F94 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>IF('vocational-rates'!I7 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F123 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>IF('vocational-rates'!J7 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F152 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>IF('vocational-rates'!K7 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F181 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>IF('vocational-rates'!L7 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F210 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>IF('vocational-rates'!M7 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F239 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>IF('vocational-rates'!N7 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F268 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>IF('vocational-rates'!O7 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F297 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>IF('vocational-rates'!P7 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F326 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>IF('vocational-rates'!Q7 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F355 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>IF('vocational-rates'!R7 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F384 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>IF('vocational-rates'!S7 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F413 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>IF('vocational-rates'!T7 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F442 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>IF('vocational-rates'!U7 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F471 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>IF('vocational-rates'!V7 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F500 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>IF('vocational-rates'!W7 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F529 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>IF('vocational-rates'!X7 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F558 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>IF('vocational-rates'!Y7 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F587 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>IF('vocational-rates'!Z7 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F616 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>IF('vocational-rates'!AA7 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F645 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>IF('vocational-rates'!AB7 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F674 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>IF('vocational-rates'!AC7 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F703 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>IF('vocational-rates'!AD7 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F732 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>IF('vocational-rates'!AE7 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F761 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>IF('vocational-rates'!AF7 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F790 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>IF('vocational-rates'!AG7 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F819 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>IF('vocational-rates'!AH7 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F848 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <f>IF('vocational-rates'!AI7 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F877 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f>IF('vocational-rates'!AJ7 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F906 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <f>IF('vocational-rates'!AK7 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F935 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <f>IF('vocational-rates'!AL7 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F964 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <f>IF('vocational-rates'!AM7 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F993 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <f>IF('vocational-rates'!AN7 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1022 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <f>IF('vocational-rates'!AO7 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1051 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <f>IF('vocational-rates'!AP7 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1080 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <f>IF('vocational-rates'!AQ7 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1109 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <f>IF('vocational-rates'!AR7 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1138 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <f>IF('vocational-rates'!AS7 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1167 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <f>IF('vocational-rates'!AT7 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1196 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <f>IF('vocational-rates'!AU7 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1225 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <f>IF('vocational-rates'!AV7 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1254 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <f>IF('vocational-rates'!AW7 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1283 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <f>IF('vocational-rates'!AX7 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1312 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <f>IF('vocational-rates'!AY7 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1341 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <f>IF('vocational-rates'!AZ7 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1370 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <f>IF('vocational-rates'!BA7 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1399 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2499,199 +2501,199 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <f>IF('vocational-rates'!E8 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8">
         <f>IF('vocational-rates'!F8 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E8">
+        <f>IF('vocational-rates'!F37 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F8">
-        <f>IF('vocational-rates'!G8 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F66 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IF('vocational-rates'!H8 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F95 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IF('vocational-rates'!I8 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F124 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF('vocational-rates'!J8 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F153 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IF('vocational-rates'!K8 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F182 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IF('vocational-rates'!L8 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F211 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF('vocational-rates'!M8 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F240 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>IF('vocational-rates'!N8 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F269 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF('vocational-rates'!O8 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F298 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IF('vocational-rates'!P8 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F327 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IF('vocational-rates'!Q8 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F356 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IF('vocational-rates'!R8 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F385 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>IF('vocational-rates'!S8 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F414 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>IF('vocational-rates'!T8 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F443 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f>IF('vocational-rates'!U8 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F472 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>IF('vocational-rates'!V8 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F501 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f>IF('vocational-rates'!W8 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F530 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f>IF('vocational-rates'!X8 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F559 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>IF('vocational-rates'!Y8 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F588 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f>IF('vocational-rates'!Z8 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F617 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f>IF('vocational-rates'!AA8 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F646 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f>IF('vocational-rates'!AB8 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F675 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>IF('vocational-rates'!AC8 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F704 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>IF('vocational-rates'!AD8 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F733 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>IF('vocational-rates'!AE8 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F762 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>IF('vocational-rates'!AF8 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F791 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>IF('vocational-rates'!AG8 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F820 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f>IF('vocational-rates'!AH8 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F849 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <f>IF('vocational-rates'!AI8 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F878 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f>IF('vocational-rates'!AJ8 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F907 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <f>IF('vocational-rates'!AK8 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F936 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <f>IF('vocational-rates'!AL8 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F965 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <f>IF('vocational-rates'!AM8 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F994 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <f>IF('vocational-rates'!AN8 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1023 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>IF('vocational-rates'!AO8 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1052 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <f>IF('vocational-rates'!AP8 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1081 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <f>IF('vocational-rates'!AQ8 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1110 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <f>IF('vocational-rates'!AR8 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1139 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <f>IF('vocational-rates'!AS8 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1168 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <f>IF('vocational-rates'!AT8 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1197 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <f>IF('vocational-rates'!AU8 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1226 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <f>IF('vocational-rates'!AV8 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1255 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV8">
-        <f>IF('vocational-rates'!AW8 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1284 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW8">
-        <f>IF('vocational-rates'!AX8 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1313 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX8">
-        <f>IF('vocational-rates'!AY8 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1342 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY8">
-        <f>IF('vocational-rates'!AZ8 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1371 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ8">
-        <f>IF('vocational-rates'!BA8 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1400 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2706,199 +2708,199 @@
         <v>62</v>
       </c>
       <c r="D9">
-        <f>IF('vocational-rates'!E9 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9">
         <f>IF('vocational-rates'!F9 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E9">
+        <f>IF('vocational-rates'!F38 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F9">
-        <f>IF('vocational-rates'!G9 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F67 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f>IF('vocational-rates'!H9 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F96 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f>IF('vocational-rates'!I9 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F125 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f>IF('vocational-rates'!J9 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F154 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f>IF('vocational-rates'!K9 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F183 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f>IF('vocational-rates'!L9 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F212 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L9">
-        <f>IF('vocational-rates'!M9 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F241 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f>IF('vocational-rates'!N9 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F270 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f>IF('vocational-rates'!O9 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F299 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f>IF('vocational-rates'!P9 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F328 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f>IF('vocational-rates'!Q9 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F357 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f>IF('vocational-rates'!R9 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F386 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R9">
-        <f>IF('vocational-rates'!S9 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F415 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S9">
-        <f>IF('vocational-rates'!T9 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F444 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T9">
-        <f>IF('vocational-rates'!U9 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F473 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U9">
-        <f>IF('vocational-rates'!V9 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F502 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V9">
-        <f>IF('vocational-rates'!W9 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F531 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f>IF('vocational-rates'!X9 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F560 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X9">
-        <f>IF('vocational-rates'!Y9 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F589 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>IF('vocational-rates'!Z9 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F618 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>IF('vocational-rates'!AA9 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F647 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>IF('vocational-rates'!AB9 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F676 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f>IF('vocational-rates'!AC9 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F705 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>IF('vocational-rates'!AD9 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F734 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>IF('vocational-rates'!AE9 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F763 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>IF('vocational-rates'!AF9 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F792 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f>IF('vocational-rates'!AG9 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F821 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f>IF('vocational-rates'!AH9 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F850 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>IF('vocational-rates'!AI9 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F879 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>IF('vocational-rates'!AJ9 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F908 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>IF('vocational-rates'!AK9 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F937 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f>IF('vocational-rates'!AL9 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F966 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>IF('vocational-rates'!AM9 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F995 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>IF('vocational-rates'!AN9 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1024 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>IF('vocational-rates'!AO9 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1053 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>IF('vocational-rates'!AP9 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1082 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>IF('vocational-rates'!AQ9 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1111 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ9">
-        <f>IF('vocational-rates'!AR9 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1140 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR9">
-        <f>IF('vocational-rates'!AS9 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1169 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS9">
-        <f>IF('vocational-rates'!AT9 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1198 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT9">
-        <f>IF('vocational-rates'!AU9 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1227 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU9">
-        <f>IF('vocational-rates'!AV9 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1256 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV9">
-        <f>IF('vocational-rates'!AW9 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1285 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW9">
-        <f>IF('vocational-rates'!AX9 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1314 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX9">
-        <f>IF('vocational-rates'!AY9 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1343 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY9">
-        <f>IF('vocational-rates'!AZ9 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1372 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ9">
-        <f>IF('vocational-rates'!BA9 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1401 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2913,200 +2915,200 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <f>IF('vocational-rates'!E10 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F10 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>IF('vocational-rates'!F10 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F39 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>IF('vocational-rates'!G10 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F68 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>IF('vocational-rates'!H10 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F97 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IF('vocational-rates'!I10 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F126 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF('vocational-rates'!J10 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F155 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IF('vocational-rates'!K10 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F184 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF('vocational-rates'!L10 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F213 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF('vocational-rates'!M10 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F242 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IF('vocational-rates'!N10 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F271 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IF('vocational-rates'!O10 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F300 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IF('vocational-rates'!P10 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F329 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IF('vocational-rates'!Q10 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F358 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>IF('vocational-rates'!R10 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F387 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>IF('vocational-rates'!S10 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F416 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>IF('vocational-rates'!T10 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F445 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>IF('vocational-rates'!U10 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F474 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>IF('vocational-rates'!V10 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F503 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>IF('vocational-rates'!W10 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F532 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>IF('vocational-rates'!X10 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F561 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>IF('vocational-rates'!Y10 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F590 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>IF('vocational-rates'!Z10 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F619 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>IF('vocational-rates'!AA10 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F648 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>IF('vocational-rates'!AB10 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F677 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f>IF('vocational-rates'!AC10 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F706 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>IF('vocational-rates'!AD10 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F735 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f>IF('vocational-rates'!AE10 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F764 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>IF('vocational-rates'!AF10 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F793 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f>IF('vocational-rates'!AG10 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F822 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <f>IF('vocational-rates'!AH10 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F851 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <f>IF('vocational-rates'!AI10 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F880 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <f>IF('vocational-rates'!AJ10 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F909 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <f>IF('vocational-rates'!AK10 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F938 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <f>IF('vocational-rates'!AL10 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F967 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <f>IF('vocational-rates'!AM10 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F996 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <f>IF('vocational-rates'!AN10 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1025 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <f>IF('vocational-rates'!AO10 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1054 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <f>IF('vocational-rates'!AP10 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1083 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <f>IF('vocational-rates'!AQ10 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1112 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <f>IF('vocational-rates'!AR10 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1141 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <f>IF('vocational-rates'!AS10 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1170 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <f>IF('vocational-rates'!AT10 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1199 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <f>IF('vocational-rates'!AU10 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1228 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <f>IF('vocational-rates'!AV10 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1257 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <f>IF('vocational-rates'!AW10 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1286 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <f>IF('vocational-rates'!AX10 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1315 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <f>IF('vocational-rates'!AY10 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1344 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <f>IF('vocational-rates'!AZ10 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1373 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <f>IF('vocational-rates'!BA10 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1402 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3120,199 +3122,199 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <f>IF('vocational-rates'!E11 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F11 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IF('vocational-rates'!F11 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F40 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>IF('vocational-rates'!G11 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F69 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IF('vocational-rates'!H11 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F98 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IF('vocational-rates'!I11 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F127 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF('vocational-rates'!J11 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F156 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IF('vocational-rates'!K11 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F185 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IF('vocational-rates'!L11 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F214 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF('vocational-rates'!M11 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F243 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>IF('vocational-rates'!N11 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F272 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IF('vocational-rates'!O11 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F301 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IF('vocational-rates'!P11 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F330 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IF('vocational-rates'!Q11 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F359 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>IF('vocational-rates'!R11 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F388 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>IF('vocational-rates'!S11 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F417 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>IF('vocational-rates'!T11 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F446 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>IF('vocational-rates'!U11 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F475 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>IF('vocational-rates'!V11 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F504 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>IF('vocational-rates'!W11 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F533 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>IF('vocational-rates'!X11 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F562 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>IF('vocational-rates'!Y11 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F591 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>IF('vocational-rates'!Z11 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F620 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>IF('vocational-rates'!AA11 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F649 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>IF('vocational-rates'!AB11 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F678 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>IF('vocational-rates'!AC11 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F707 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f>IF('vocational-rates'!AD11 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F736 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f>IF('vocational-rates'!AE11 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F765 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>IF('vocational-rates'!AF11 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F794 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f>IF('vocational-rates'!AG11 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F823 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f>IF('vocational-rates'!AH11 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F852 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>IF('vocational-rates'!AI11 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F881 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <f>IF('vocational-rates'!AJ11 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F910 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <f>IF('vocational-rates'!AK11 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F939 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <f>IF('vocational-rates'!AL11 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F968 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <f>IF('vocational-rates'!AM11 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F997 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>IF('vocational-rates'!AN11 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1026 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>IF('vocational-rates'!AO11 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1055 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>IF('vocational-rates'!AP11 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1084 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>IF('vocational-rates'!AQ11 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1113 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ11">
-        <f>IF('vocational-rates'!AR11 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1142 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR11">
-        <f>IF('vocational-rates'!AS11 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1171 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS11">
-        <f>IF('vocational-rates'!AT11 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1200 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT11">
-        <f>IF('vocational-rates'!AU11 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1229 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU11">
-        <f>IF('vocational-rates'!AV11 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1258 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV11">
-        <f>IF('vocational-rates'!AW11 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1287 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW11">
-        <f>IF('vocational-rates'!AX11 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1316 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX11">
-        <f>IF('vocational-rates'!AY11 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1345 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY11">
-        <f>IF('vocational-rates'!AZ11 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1374 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ11">
-        <f>IF('vocational-rates'!BA11 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1403 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3327,199 +3329,199 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <f>IF('vocational-rates'!E12 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
         <f>IF('vocational-rates'!F12 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E12">
+        <f>IF('vocational-rates'!F41 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F12">
-        <f>IF('vocational-rates'!G12 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F70 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f>IF('vocational-rates'!H12 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F99 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f>IF('vocational-rates'!I12 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F128 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f>IF('vocational-rates'!J12 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F157 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f>IF('vocational-rates'!K12 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F186 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K12">
-        <f>IF('vocational-rates'!L12 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F215 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L12">
-        <f>IF('vocational-rates'!M12 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F244 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M12">
-        <f>IF('vocational-rates'!N12 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F273 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f>IF('vocational-rates'!O12 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F302 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f>IF('vocational-rates'!P12 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F331 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f>IF('vocational-rates'!Q12 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F360 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f>IF('vocational-rates'!R12 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F389 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R12">
-        <f>IF('vocational-rates'!S12 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F418 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S12">
-        <f>IF('vocational-rates'!T12 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F447 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T12">
-        <f>IF('vocational-rates'!U12 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F476 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U12">
-        <f>IF('vocational-rates'!V12 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F505 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V12">
-        <f>IF('vocational-rates'!W12 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F534 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W12">
-        <f>IF('vocational-rates'!X12 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F563 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X12">
-        <f>IF('vocational-rates'!Y12 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F592 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <f>IF('vocational-rates'!Z12 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F621 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <f>IF('vocational-rates'!AA12 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F650 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>IF('vocational-rates'!AB12 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F679 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>IF('vocational-rates'!AC12 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F708 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>IF('vocational-rates'!AD12 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F737 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>IF('vocational-rates'!AE12 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F766 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>IF('vocational-rates'!AF12 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F795 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>IF('vocational-rates'!AG12 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F824 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>IF('vocational-rates'!AH12 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F853 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>IF('vocational-rates'!AI12 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F882 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f>IF('vocational-rates'!AJ12 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F911 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>IF('vocational-rates'!AK12 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F940 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>IF('vocational-rates'!AL12 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F969 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>IF('vocational-rates'!AM12 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F998 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>IF('vocational-rates'!AN12 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1027 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>IF('vocational-rates'!AO12 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1056 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>IF('vocational-rates'!AP12 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1085 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>IF('vocational-rates'!AQ12 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1114 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ12">
-        <f>IF('vocational-rates'!AR12 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1143 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR12">
-        <f>IF('vocational-rates'!AS12 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1172 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS12">
-        <f>IF('vocational-rates'!AT12 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1201 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT12">
-        <f>IF('vocational-rates'!AU12 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1230 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU12">
-        <f>IF('vocational-rates'!AV12 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1259 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV12">
-        <f>IF('vocational-rates'!AW12 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1288 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW12">
-        <f>IF('vocational-rates'!AX12 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1317 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX12">
-        <f>IF('vocational-rates'!AY12 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1346 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY12">
-        <f>IF('vocational-rates'!AZ12 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1375 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ12">
-        <f>IF('vocational-rates'!BA12 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1404 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3534,199 +3536,199 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <f>IF('vocational-rates'!E13 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F13 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IF('vocational-rates'!F13 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F42 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF('vocational-rates'!G13 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F71 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IF('vocational-rates'!H13 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F100 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IF('vocational-rates'!I13 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F129 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF('vocational-rates'!J13 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F158 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IF('vocational-rates'!K13 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F187 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IF('vocational-rates'!L13 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F216 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IF('vocational-rates'!M13 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F245 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IF('vocational-rates'!N13 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F274 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IF('vocational-rates'!O13 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F303 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IF('vocational-rates'!P13 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F332 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IF('vocational-rates'!Q13 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F361 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IF('vocational-rates'!R13 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F390 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>IF('vocational-rates'!S13 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F419 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>IF('vocational-rates'!T13 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F448 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>IF('vocational-rates'!U13 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F477 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>IF('vocational-rates'!V13 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F506 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>IF('vocational-rates'!W13 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F535 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>IF('vocational-rates'!X13 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F564 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>IF('vocational-rates'!Y13 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F593 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f>IF('vocational-rates'!Z13 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F622 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>IF('vocational-rates'!AA13 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F651 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>IF('vocational-rates'!AB13 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F680 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>IF('vocational-rates'!AC13 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F709 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>IF('vocational-rates'!AD13 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F738 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f>IF('vocational-rates'!AE13 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F767 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f>IF('vocational-rates'!AF13 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F796 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f>IF('vocational-rates'!AG13 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F825 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f>IF('vocational-rates'!AH13 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F854 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f>IF('vocational-rates'!AI13 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F883 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f>IF('vocational-rates'!AJ13 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F912 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f>IF('vocational-rates'!AK13 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F941 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f>IF('vocational-rates'!AL13 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F970 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f>IF('vocational-rates'!AM13 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F999 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM13">
-        <f>IF('vocational-rates'!AN13 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1028 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN13">
-        <f>IF('vocational-rates'!AO13 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1057 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO13">
-        <f>IF('vocational-rates'!AP13 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1086 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP13">
-        <f>IF('vocational-rates'!AQ13 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1115 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ13">
-        <f>IF('vocational-rates'!AR13 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1144 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR13">
-        <f>IF('vocational-rates'!AS13 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1173 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS13">
-        <f>IF('vocational-rates'!AT13 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1202 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT13">
-        <f>IF('vocational-rates'!AU13 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1231 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU13">
-        <f>IF('vocational-rates'!AV13 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1260 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV13">
-        <f>IF('vocational-rates'!AW13 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1289 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW13">
-        <f>IF('vocational-rates'!AX13 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1318 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX13">
-        <f>IF('vocational-rates'!AY13 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1347 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY13">
-        <f>IF('vocational-rates'!AZ13 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1376 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ13">
-        <f>IF('vocational-rates'!BA13 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1405 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3741,199 +3743,199 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <f>IF('vocational-rates'!E14 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E14">
         <f>IF('vocational-rates'!F14 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E14">
+        <f>IF('vocational-rates'!F43 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F14">
-        <f>IF('vocational-rates'!G14 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F72 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f>IF('vocational-rates'!H14 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F101 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f>IF('vocational-rates'!I14 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F130 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f>IF('vocational-rates'!J14 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F159 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f>IF('vocational-rates'!K14 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F188 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f>IF('vocational-rates'!L14 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F217 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L14">
-        <f>IF('vocational-rates'!M14 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F246 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f>IF('vocational-rates'!N14 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F275 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f>IF('vocational-rates'!O14 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F304 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f>IF('vocational-rates'!P14 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F333 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P14">
-        <f>IF('vocational-rates'!Q14 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F362 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF('vocational-rates'!R14 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F391 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R14">
-        <f>IF('vocational-rates'!S14 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F420 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f>IF('vocational-rates'!T14 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F449 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T14">
-        <f>IF('vocational-rates'!U14 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F478 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>IF('vocational-rates'!V14 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F507 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>IF('vocational-rates'!W14 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F536 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>IF('vocational-rates'!X14 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F565 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>IF('vocational-rates'!Y14 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F594 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <f>IF('vocational-rates'!Z14 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F623 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <f>IF('vocational-rates'!AA14 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F652 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <f>IF('vocational-rates'!AB14 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F681 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <f>IF('vocational-rates'!AC14 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F710 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <f>IF('vocational-rates'!AD14 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F739 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <f>IF('vocational-rates'!AE14 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F768 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <f>IF('vocational-rates'!AF14 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F797 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <f>IF('vocational-rates'!AG14 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F826 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f>IF('vocational-rates'!AH14 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F855 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f>IF('vocational-rates'!AI14 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F884 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f>IF('vocational-rates'!AJ14 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F913 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f>IF('vocational-rates'!AK14 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F942 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f>IF('vocational-rates'!AL14 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F971 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL14">
-        <f>IF('vocational-rates'!AM14 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1000 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM14">
-        <f>IF('vocational-rates'!AN14 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1029 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f>IF('vocational-rates'!AO14 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1058 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO14">
-        <f>IF('vocational-rates'!AP14 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1087 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP14">
-        <f>IF('vocational-rates'!AQ14 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1116 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ14">
-        <f>IF('vocational-rates'!AR14 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1145 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR14">
-        <f>IF('vocational-rates'!AS14 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1174 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS14">
-        <f>IF('vocational-rates'!AT14 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1203 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT14">
-        <f>IF('vocational-rates'!AU14 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1232 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU14">
-        <f>IF('vocational-rates'!AV14 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1261 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV14">
-        <f>IF('vocational-rates'!AW14 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1290 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW14">
-        <f>IF('vocational-rates'!AX14 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1319 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX14">
-        <f>IF('vocational-rates'!AY14 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1348 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY14">
-        <f>IF('vocational-rates'!AZ14 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1377 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ14">
-        <f>IF('vocational-rates'!BA14 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1406 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3948,200 +3950,200 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <f>IF('vocational-rates'!E15 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F15 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF('vocational-rates'!F15 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F44 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>IF('vocational-rates'!G15 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F73 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>IF('vocational-rates'!H15 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F102 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IF('vocational-rates'!I15 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F131 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF('vocational-rates'!J15 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F160 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IF('vocational-rates'!K15 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F189 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IF('vocational-rates'!L15 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F218 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>IF('vocational-rates'!M15 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F247 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IF('vocational-rates'!N15 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F276 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IF('vocational-rates'!O15 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F305 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IF('vocational-rates'!P15 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F334 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IF('vocational-rates'!Q15 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F363 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IF('vocational-rates'!R15 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F392 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>IF('vocational-rates'!S15 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F421 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>IF('vocational-rates'!T15 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F450 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>IF('vocational-rates'!U15 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F479 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>IF('vocational-rates'!V15 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F508 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>IF('vocational-rates'!W15 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F537 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>IF('vocational-rates'!X15 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F566 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>IF('vocational-rates'!Y15 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F595 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>IF('vocational-rates'!Z15 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F624 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>IF('vocational-rates'!AA15 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F653 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f>IF('vocational-rates'!AB15 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F682 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>IF('vocational-rates'!AC15 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F711 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>IF('vocational-rates'!AD15 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F740 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f>IF('vocational-rates'!AE15 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F769 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f>IF('vocational-rates'!AF15 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F798 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f>IF('vocational-rates'!AG15 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F827 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f>IF('vocational-rates'!AH15 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F856 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f>IF('vocational-rates'!AI15 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F885 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f>IF('vocational-rates'!AJ15 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F914 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f>IF('vocational-rates'!AK15 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F943 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f>IF('vocational-rates'!AL15 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F972 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL15">
-        <f>IF('vocational-rates'!AM15 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1001 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM15">
-        <f>IF('vocational-rates'!AN15 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1030 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN15">
-        <f>IF('vocational-rates'!AO15 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1059 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO15">
-        <f>IF('vocational-rates'!AP15 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1088 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP15">
-        <f>IF('vocational-rates'!AQ15 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1117 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ15">
-        <f>IF('vocational-rates'!AR15 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1146 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR15">
-        <f>IF('vocational-rates'!AS15 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1175 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS15">
-        <f>IF('vocational-rates'!AT15 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1204 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f>IF('vocational-rates'!AU15 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1233 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU15">
-        <f>IF('vocational-rates'!AV15 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1262 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV15">
-        <f>IF('vocational-rates'!AW15 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1291 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW15">
-        <f>IF('vocational-rates'!AX15 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1320 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX15">
-        <f>IF('vocational-rates'!AY15 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1349 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY15">
-        <f>IF('vocational-rates'!AZ15 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1378 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ15">
-        <f>IF('vocational-rates'!BA15 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1407 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,200 +4157,200 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <f>IF('vocational-rates'!E16 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E16">
         <f>IF('vocational-rates'!F16 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E16">
+        <f>IF('vocational-rates'!F45 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F16">
-        <f>IF('vocational-rates'!G16 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F74 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f>IF('vocational-rates'!H16 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F103 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f>IF('vocational-rates'!I16 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F132 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I16">
-        <f>IF('vocational-rates'!J16 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F161 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J16">
-        <f>IF('vocational-rates'!K16 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F190 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K16">
-        <f>IF('vocational-rates'!L16 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F219 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L16">
-        <f>IF('vocational-rates'!M16 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F248 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M16">
-        <f>IF('vocational-rates'!N16 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F277 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f>IF('vocational-rates'!O16 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F306 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O16">
-        <f>IF('vocational-rates'!P16 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F335 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P16">
-        <f>IF('vocational-rates'!Q16 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F364 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF('vocational-rates'!R16 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F393 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R16">
-        <f>IF('vocational-rates'!S16 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F422 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S16">
-        <f>IF('vocational-rates'!T16 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F451 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T16">
-        <f>IF('vocational-rates'!U16 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F480 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U16">
-        <f>IF('vocational-rates'!V16 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F509 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V16">
-        <f>IF('vocational-rates'!W16 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F538 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W16">
-        <f>IF('vocational-rates'!X16 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F567 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X16">
-        <f>IF('vocational-rates'!Y16 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F596 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <f>IF('vocational-rates'!Z16 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F625 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <f>IF('vocational-rates'!AA16 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F654 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <f>IF('vocational-rates'!AB16 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F683 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <f>IF('vocational-rates'!AC16 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F712 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <f>IF('vocational-rates'!AD16 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F741 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <f>IF('vocational-rates'!AE16 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F770 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <f>IF('vocational-rates'!AF16 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F799 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <f>IF('vocational-rates'!AG16 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F828 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <f>IF('vocational-rates'!AH16 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F857 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <f>IF('vocational-rates'!AI16 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F886 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI16">
-        <f>IF('vocational-rates'!AJ16 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F915 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ16">
-        <f>IF('vocational-rates'!AK16 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F944 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK16">
-        <f>IF('vocational-rates'!AL16 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F973 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL16">
-        <f>IF('vocational-rates'!AM16 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1002 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <f>IF('vocational-rates'!AN16 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1031 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <f>IF('vocational-rates'!AO16 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1060 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <f>IF('vocational-rates'!AP16 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1089 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <f>IF('vocational-rates'!AQ16 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1118 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <f>IF('vocational-rates'!AR16 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1147 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <f>IF('vocational-rates'!AS16 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1176 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <f>IF('vocational-rates'!AT16 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1205 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <f>IF('vocational-rates'!AU16 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1234 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <f>IF('vocational-rates'!AV16 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1263 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <f>IF('vocational-rates'!AW16 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1292 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <f>IF('vocational-rates'!AX16 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1321 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <f>IF('vocational-rates'!AY16 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1350 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY16">
-        <f>IF('vocational-rates'!AZ16 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1379 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <f>IF('vocational-rates'!BA16 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1408 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4362,199 +4364,199 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <f>IF('vocational-rates'!E17 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F17 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF('vocational-rates'!F17 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F46 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>IF('vocational-rates'!G17 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F75 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IF('vocational-rates'!H17 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F104 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IF('vocational-rates'!I17 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F133 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I17">
-        <f>IF('vocational-rates'!J17 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F162 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J17">
-        <f>IF('vocational-rates'!K17 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F191 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF('vocational-rates'!L17 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F220 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF('vocational-rates'!M17 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F249 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IF('vocational-rates'!N17 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F278 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF('vocational-rates'!O17 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F307 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IF('vocational-rates'!P17 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F336 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IF('vocational-rates'!Q17 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F365 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF('vocational-rates'!R17 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F394 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>IF('vocational-rates'!S17 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F423 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>IF('vocational-rates'!T17 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F452 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>IF('vocational-rates'!U17 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F481 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>IF('vocational-rates'!V17 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F510 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>IF('vocational-rates'!W17 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F539 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>IF('vocational-rates'!X17 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F568 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>IF('vocational-rates'!Y17 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F597 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>IF('vocational-rates'!Z17 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F626 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>IF('vocational-rates'!AA17 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F655 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f>IF('vocational-rates'!AB17 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F684 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>IF('vocational-rates'!AC17 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F713 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>IF('vocational-rates'!AD17 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F742 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f>IF('vocational-rates'!AE17 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F771 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f>IF('vocational-rates'!AF17 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F800 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f>IF('vocational-rates'!AG17 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F829 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG17">
-        <f>IF('vocational-rates'!AH17 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F858 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH17">
-        <f>IF('vocational-rates'!AI17 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F887 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI17">
-        <f>IF('vocational-rates'!AJ17 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F916 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ17">
-        <f>IF('vocational-rates'!AK17 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F945 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK17">
-        <f>IF('vocational-rates'!AL17 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F974 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL17">
-        <f>IF('vocational-rates'!AM17 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1003 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM17">
-        <f>IF('vocational-rates'!AN17 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1032 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN17">
-        <f>IF('vocational-rates'!AO17 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1061 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO17">
-        <f>IF('vocational-rates'!AP17 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1090 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP17">
-        <f>IF('vocational-rates'!AQ17 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1119 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ17">
-        <f>IF('vocational-rates'!AR17 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1148 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR17">
-        <f>IF('vocational-rates'!AS17 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1177 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS17">
-        <f>IF('vocational-rates'!AT17 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1206 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT17">
-        <f>IF('vocational-rates'!AU17 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1235 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <f>IF('vocational-rates'!AV17 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1264 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV17">
-        <f>IF('vocational-rates'!AW17 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1293 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW17">
-        <f>IF('vocational-rates'!AX17 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1322 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX17">
-        <f>IF('vocational-rates'!AY17 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1351 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY17">
-        <f>IF('vocational-rates'!AZ17 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1380 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ17">
-        <f>IF('vocational-rates'!BA17 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1409 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4569,199 +4571,199 @@
         <v>62</v>
       </c>
       <c r="D18">
-        <f>IF('vocational-rates'!E18 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F18 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IF('vocational-rates'!F18 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F47 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>IF('vocational-rates'!G18 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F76 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>IF('vocational-rates'!H18 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F105 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IF('vocational-rates'!I18 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F134 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF('vocational-rates'!J18 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F163 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IF('vocational-rates'!K18 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F192 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IF('vocational-rates'!L18 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F221 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF('vocational-rates'!M18 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F250 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>IF('vocational-rates'!N18 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F279 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IF('vocational-rates'!O18 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F308 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IF('vocational-rates'!P18 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F337 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IF('vocational-rates'!Q18 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F366 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IF('vocational-rates'!R18 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F395 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>IF('vocational-rates'!S18 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F424 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>IF('vocational-rates'!T18 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F453 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>IF('vocational-rates'!U18 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F482 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>IF('vocational-rates'!V18 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F511 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>IF('vocational-rates'!W18 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F540 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>IF('vocational-rates'!X18 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F569 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>IF('vocational-rates'!Y18 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F598 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f>IF('vocational-rates'!Z18 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F627 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>IF('vocational-rates'!AA18 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F656 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f>IF('vocational-rates'!AB18 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F685 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>IF('vocational-rates'!AC18 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F714 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>IF('vocational-rates'!AD18 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F743 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD18">
-        <f>IF('vocational-rates'!AE18 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F772 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE18">
-        <f>IF('vocational-rates'!AF18 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F801 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f>IF('vocational-rates'!AG18 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F830 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG18">
-        <f>IF('vocational-rates'!AH18 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F859 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f>IF('vocational-rates'!AI18 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F888 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f>IF('vocational-rates'!AJ18 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F917 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ18">
-        <f>IF('vocational-rates'!AK18 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F946 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK18">
-        <f>IF('vocational-rates'!AL18 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F975 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL18">
-        <f>IF('vocational-rates'!AM18 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1004 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM18">
-        <f>IF('vocational-rates'!AN18 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1033 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN18">
-        <f>IF('vocational-rates'!AO18 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1062 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO18">
-        <f>IF('vocational-rates'!AP18 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1091 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP18">
-        <f>IF('vocational-rates'!AQ18 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1120 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ18">
-        <f>IF('vocational-rates'!AR18 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1149 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR18">
-        <f>IF('vocational-rates'!AS18 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1178 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS18">
-        <f>IF('vocational-rates'!AT18 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1207 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT18">
-        <f>IF('vocational-rates'!AU18 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1236 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU18">
-        <f>IF('vocational-rates'!AV18 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1265 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV18">
-        <f>IF('vocational-rates'!AW18 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1294 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW18">
-        <f>IF('vocational-rates'!AX18 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1323 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX18">
-        <f>IF('vocational-rates'!AY18 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1352 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY18">
-        <f>IF('vocational-rates'!AZ18 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1381 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ18">
-        <f>IF('vocational-rates'!BA18 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1410 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4776,200 +4778,200 @@
         <v>62</v>
       </c>
       <c r="D19">
-        <f>IF('vocational-rates'!E19 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E19">
         <f>IF('vocational-rates'!F19 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E19">
+        <f>IF('vocational-rates'!F48 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F19">
-        <f>IF('vocational-rates'!G19 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F77 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f>IF('vocational-rates'!H19 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F106 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H19">
-        <f>IF('vocational-rates'!I19 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F135 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f>IF('vocational-rates'!J19 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F164 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J19">
-        <f>IF('vocational-rates'!K19 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F193 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K19">
-        <f>IF('vocational-rates'!L19 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F222 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L19">
-        <f>IF('vocational-rates'!M19 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F251 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M19">
-        <f>IF('vocational-rates'!N19 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F280 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f>IF('vocational-rates'!O19 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F309 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O19">
-        <f>IF('vocational-rates'!P19 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F338 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P19">
-        <f>IF('vocational-rates'!Q19 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F367 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f>IF('vocational-rates'!R19 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F396 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R19">
-        <f>IF('vocational-rates'!S19 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F425 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S19">
-        <f>IF('vocational-rates'!T19 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F454 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T19">
-        <f>IF('vocational-rates'!U19 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F483 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U19">
-        <f>IF('vocational-rates'!V19 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F512 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V19">
-        <f>IF('vocational-rates'!W19 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F541 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W19">
-        <f>IF('vocational-rates'!X19 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F570 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X19">
-        <f>IF('vocational-rates'!Y19 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F599 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <f>IF('vocational-rates'!Z19 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F628 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <f>IF('vocational-rates'!AA19 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F657 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <f>IF('vocational-rates'!AB19 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F686 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <f>IF('vocational-rates'!AC19 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F715 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <f>IF('vocational-rates'!AD19 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F744 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <f>IF('vocational-rates'!AE19 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F773 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <f>IF('vocational-rates'!AF19 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F802 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <f>IF('vocational-rates'!AG19 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F831 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <f>IF('vocational-rates'!AH19 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F860 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <f>IF('vocational-rates'!AI19 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F889 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <f>IF('vocational-rates'!AJ19 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F918 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <f>IF('vocational-rates'!AK19 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F947 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <f>IF('vocational-rates'!AL19 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F976 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <f>IF('vocational-rates'!AM19 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1005 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <f>IF('vocational-rates'!AN19 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1034 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <f>IF('vocational-rates'!AO19 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1063 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <f>IF('vocational-rates'!AP19 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1092 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <f>IF('vocational-rates'!AQ19 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1121 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <f>IF('vocational-rates'!AR19 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1150 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <f>IF('vocational-rates'!AS19 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1179 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <f>IF('vocational-rates'!AT19 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1208 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <f>IF('vocational-rates'!AU19 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1237 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <f>IF('vocational-rates'!AV19 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1266 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <f>IF('vocational-rates'!AW19 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1295 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <f>IF('vocational-rates'!AX19 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1324 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <f>IF('vocational-rates'!AY19 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1353 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY19">
-        <f>IF('vocational-rates'!AZ19 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1382 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ19">
-        <f>IF('vocational-rates'!BA19 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1411 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4983,199 +4985,199 @@
         <v>62</v>
       </c>
       <c r="D20">
-        <f>IF('vocational-rates'!E20 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F20 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>IF('vocational-rates'!F20 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F49 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>IF('vocational-rates'!G20 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F78 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>IF('vocational-rates'!H20 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F107 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>IF('vocational-rates'!I20 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F136 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF('vocational-rates'!J20 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F165 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>IF('vocational-rates'!K20 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F194 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>IF('vocational-rates'!L20 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F223 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>IF('vocational-rates'!M20 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F252 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>IF('vocational-rates'!N20 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F281 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>IF('vocational-rates'!O20 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F310 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>IF('vocational-rates'!P20 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F339 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>IF('vocational-rates'!Q20 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F368 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>IF('vocational-rates'!R20 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F397 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>IF('vocational-rates'!S20 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F426 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>IF('vocational-rates'!T20 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F455 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>IF('vocational-rates'!U20 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F484 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>IF('vocational-rates'!V20 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F513 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>IF('vocational-rates'!W20 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F542 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>IF('vocational-rates'!X20 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F571 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>IF('vocational-rates'!Y20 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F600 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f>IF('vocational-rates'!Z20 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F629 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>IF('vocational-rates'!AA20 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F658 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f>IF('vocational-rates'!AB20 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F687 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>IF('vocational-rates'!AC20 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F716 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>IF('vocational-rates'!AD20 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F745 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD20">
-        <f>IF('vocational-rates'!AE20 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F774 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f>IF('vocational-rates'!AF20 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F803 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f>IF('vocational-rates'!AG20 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F832 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f>IF('vocational-rates'!AH20 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F861 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f>IF('vocational-rates'!AI20 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F890 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI20">
-        <f>IF('vocational-rates'!AJ20 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F919 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ20">
-        <f>IF('vocational-rates'!AK20 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F948 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f>IF('vocational-rates'!AL20 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F977 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL20">
-        <f>IF('vocational-rates'!AM20 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1006 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM20">
-        <f>IF('vocational-rates'!AN20 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1035 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f>IF('vocational-rates'!AO20 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1064 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO20">
-        <f>IF('vocational-rates'!AP20 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1093 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP20">
-        <f>IF('vocational-rates'!AQ20 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1122 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ20">
-        <f>IF('vocational-rates'!AR20 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1151 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR20">
-        <f>IF('vocational-rates'!AS20 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1180 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS20">
-        <f>IF('vocational-rates'!AT20 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1209 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT20">
-        <f>IF('vocational-rates'!AU20 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1238 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU20">
-        <f>IF('vocational-rates'!AV20 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1267 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV20">
-        <f>IF('vocational-rates'!AW20 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1296 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW20">
-        <f>IF('vocational-rates'!AX20 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1325 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX20">
-        <f>IF('vocational-rates'!AY20 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1354 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY20">
-        <f>IF('vocational-rates'!AZ20 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1383 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ20">
-        <f>IF('vocational-rates'!BA20 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1412 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5190,200 +5192,200 @@
         <v>62</v>
       </c>
       <c r="D21">
-        <f>IF('vocational-rates'!E21 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E21">
         <f>IF('vocational-rates'!F21 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E21">
+        <f>IF('vocational-rates'!F50 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F21">
-        <f>IF('vocational-rates'!G21 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F79 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f>IF('vocational-rates'!H21 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F108 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H21">
-        <f>IF('vocational-rates'!I21 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F137 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I21">
-        <f>IF('vocational-rates'!J21 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F166 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J21">
-        <f>IF('vocational-rates'!K21 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F195 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K21">
-        <f>IF('vocational-rates'!L21 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F224 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L21">
-        <f>IF('vocational-rates'!M21 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F253 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M21">
-        <f>IF('vocational-rates'!N21 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F282 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N21">
-        <f>IF('vocational-rates'!O21 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F311 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O21">
-        <f>IF('vocational-rates'!P21 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F340 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P21">
-        <f>IF('vocational-rates'!Q21 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F369 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <f>IF('vocational-rates'!R21 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F398 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R21">
-        <f>IF('vocational-rates'!S21 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F427 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S21">
-        <f>IF('vocational-rates'!T21 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F456 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T21">
-        <f>IF('vocational-rates'!U21 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F485 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U21">
-        <f>IF('vocational-rates'!V21 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F514 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V21">
-        <f>IF('vocational-rates'!W21 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F543 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W21">
-        <f>IF('vocational-rates'!X21 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F572 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X21">
-        <f>IF('vocational-rates'!Y21 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F601 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <f>IF('vocational-rates'!Z21 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F630 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <f>IF('vocational-rates'!AA21 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F659 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <f>IF('vocational-rates'!AB21 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F688 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <f>IF('vocational-rates'!AC21 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F717 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <f>IF('vocational-rates'!AD21 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F746 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <f>IF('vocational-rates'!AE21 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F775 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <f>IF('vocational-rates'!AF21 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F804 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <f>IF('vocational-rates'!AG21 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F833 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <f>IF('vocational-rates'!AH21 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F862 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <f>IF('vocational-rates'!AI21 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F891 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <f>IF('vocational-rates'!AJ21 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F920 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <f>IF('vocational-rates'!AK21 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F949 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <f>IF('vocational-rates'!AL21 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F978 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <f>IF('vocational-rates'!AM21 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1007 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <f>IF('vocational-rates'!AN21 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1036 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <f>IF('vocational-rates'!AO21 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1065 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <f>IF('vocational-rates'!AP21 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1094 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <f>IF('vocational-rates'!AQ21 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1123 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ21">
-        <f>IF('vocational-rates'!AR21 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1152 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR21">
-        <f>IF('vocational-rates'!AS21 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1181 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <f>IF('vocational-rates'!AT21 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1210 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <f>IF('vocational-rates'!AU21 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1239 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU21">
-        <f>IF('vocational-rates'!AV21 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1268 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <f>IF('vocational-rates'!AW21 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1297 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <f>IF('vocational-rates'!AX21 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1326 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX21">
-        <f>IF('vocational-rates'!AY21 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1355 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY21">
-        <f>IF('vocational-rates'!AZ21 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1384 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ21">
-        <f>IF('vocational-rates'!BA21 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1413 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5397,200 +5399,200 @@
         <v>62</v>
       </c>
       <c r="D22">
-        <f>IF('vocational-rates'!E22 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E22">
         <f>IF('vocational-rates'!F22 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E22">
+        <f>IF('vocational-rates'!F51 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F22">
-        <f>IF('vocational-rates'!G22 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F80 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G22">
-        <f>IF('vocational-rates'!H22 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F109 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H22">
-        <f>IF('vocational-rates'!I22 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F138 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I22">
-        <f>IF('vocational-rates'!J22 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F167 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J22">
-        <f>IF('vocational-rates'!K22 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F196 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K22">
-        <f>IF('vocational-rates'!L22 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F225 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L22">
-        <f>IF('vocational-rates'!M22 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F254 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M22">
-        <f>IF('vocational-rates'!N22 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F283 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N22">
-        <f>IF('vocational-rates'!O22 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F312 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O22">
-        <f>IF('vocational-rates'!P22 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F341 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P22">
-        <f>IF('vocational-rates'!Q22 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F370 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <f>IF('vocational-rates'!R22 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F399 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R22">
-        <f>IF('vocational-rates'!S22 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F428 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S22">
-        <f>IF('vocational-rates'!T22 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F457 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T22">
-        <f>IF('vocational-rates'!U22 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F486 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U22">
-        <f>IF('vocational-rates'!V22 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F515 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V22">
-        <f>IF('vocational-rates'!W22 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F544 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W22">
-        <f>IF('vocational-rates'!X22 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F573 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X22">
-        <f>IF('vocational-rates'!Y22 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F602 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <f>IF('vocational-rates'!Z22 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F631 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <f>IF('vocational-rates'!AA22 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F660 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <f>IF('vocational-rates'!AB22 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F689 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <f>IF('vocational-rates'!AC22 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F718 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <f>IF('vocational-rates'!AD22 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F747 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <f>IF('vocational-rates'!AE22 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F776 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <f>IF('vocational-rates'!AF22 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F805 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <f>IF('vocational-rates'!AG22 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F834 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <f>IF('vocational-rates'!AH22 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F863 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <f>IF('vocational-rates'!AI22 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F892 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <f>IF('vocational-rates'!AJ22 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F921 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <f>IF('vocational-rates'!AK22 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F950 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <f>IF('vocational-rates'!AL22 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F979 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <f>IF('vocational-rates'!AM22 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1008 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM22">
-        <f>IF('vocational-rates'!AN22 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1037 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f>IF('vocational-rates'!AO22 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1066 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO22">
-        <f>IF('vocational-rates'!AP22 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1095 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP22">
-        <f>IF('vocational-rates'!AQ22 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1124 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <f>IF('vocational-rates'!AR22 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1153 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <f>IF('vocational-rates'!AS22 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1182 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <f>IF('vocational-rates'!AT22 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1211 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <f>IF('vocational-rates'!AU22 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1240 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU22">
-        <f>IF('vocational-rates'!AV22 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1269 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <f>IF('vocational-rates'!AW22 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1298 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <f>IF('vocational-rates'!AX22 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1327 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX22">
-        <f>IF('vocational-rates'!AY22 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1356 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY22">
-        <f>IF('vocational-rates'!AZ22 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1385 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ22">
-        <f>IF('vocational-rates'!BA22 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1414 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5604,199 +5606,199 @@
         <v>62</v>
       </c>
       <c r="D23">
-        <f>IF('vocational-rates'!E23 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E23">
         <f>IF('vocational-rates'!F23 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E23">
+        <f>IF('vocational-rates'!F52 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F23">
-        <f>IF('vocational-rates'!G23 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F81 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f>IF('vocational-rates'!H23 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F110 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H23">
-        <f>IF('vocational-rates'!I23 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F139 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I23">
-        <f>IF('vocational-rates'!J23 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F168 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J23">
-        <f>IF('vocational-rates'!K23 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F197 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K23">
-        <f>IF('vocational-rates'!L23 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F226 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>IF('vocational-rates'!M23 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F255 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>IF('vocational-rates'!N23 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F284 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IF('vocational-rates'!O23 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F313 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>IF('vocational-rates'!P23 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F342 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>IF('vocational-rates'!Q23 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F371 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>IF('vocational-rates'!R23 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F400 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>IF('vocational-rates'!S23 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F429 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>IF('vocational-rates'!T23 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F458 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>IF('vocational-rates'!U23 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F487 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>IF('vocational-rates'!V23 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F516 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>IF('vocational-rates'!W23 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F545 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>IF('vocational-rates'!X23 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F574 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>IF('vocational-rates'!Y23 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F603 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>IF('vocational-rates'!Z23 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F632 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f>IF('vocational-rates'!AA23 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F661 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f>IF('vocational-rates'!AB23 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F690 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f>IF('vocational-rates'!AC23 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F719 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>IF('vocational-rates'!AD23 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F748 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f>IF('vocational-rates'!AE23 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F777 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f>IF('vocational-rates'!AF23 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F806 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF23">
-        <f>IF('vocational-rates'!AG23 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F835 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f>IF('vocational-rates'!AH23 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F864 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f>IF('vocational-rates'!AI23 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F893 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI23">
-        <f>IF('vocational-rates'!AJ23 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F922 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ23">
-        <f>IF('vocational-rates'!AK23 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F951 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f>IF('vocational-rates'!AL23 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F980 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL23">
-        <f>IF('vocational-rates'!AM23 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1009 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM23">
-        <f>IF('vocational-rates'!AN23 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1038 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN23">
-        <f>IF('vocational-rates'!AO23 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1067 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO23">
-        <f>IF('vocational-rates'!AP23 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1096 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f>IF('vocational-rates'!AQ23 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1125 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ23">
-        <f>IF('vocational-rates'!AR23 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1154 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR23">
-        <f>IF('vocational-rates'!AS23 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1183 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS23">
-        <f>IF('vocational-rates'!AT23 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1212 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <f>IF('vocational-rates'!AU23 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1241 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <f>IF('vocational-rates'!AV23 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1270 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV23">
-        <f>IF('vocational-rates'!AW23 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1299 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <f>IF('vocational-rates'!AX23 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1328 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX23">
-        <f>IF('vocational-rates'!AY23 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1357 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY23">
-        <f>IF('vocational-rates'!AZ23 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1386 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ23">
-        <f>IF('vocational-rates'!BA23 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1415 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5811,200 +5813,200 @@
         <v>62</v>
       </c>
       <c r="D24">
-        <f>IF('vocational-rates'!E24 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F24 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF('vocational-rates'!F24 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F53 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>IF('vocational-rates'!G24 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F82 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>IF('vocational-rates'!H24 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F111 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>IF('vocational-rates'!I24 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F140 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF('vocational-rates'!J24 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F169 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J24">
-        <f>IF('vocational-rates'!K24 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F198 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K24">
-        <f>IF('vocational-rates'!L24 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F227 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L24">
-        <f>IF('vocational-rates'!M24 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F256 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M24">
-        <f>IF('vocational-rates'!N24 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F285 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N24">
-        <f>IF('vocational-rates'!O24 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F314 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O24">
-        <f>IF('vocational-rates'!P24 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F343 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P24">
-        <f>IF('vocational-rates'!Q24 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F372 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <f>IF('vocational-rates'!R24 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F401 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R24">
-        <f>IF('vocational-rates'!S24 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F430 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S24">
-        <f>IF('vocational-rates'!T24 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F459 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T24">
-        <f>IF('vocational-rates'!U24 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F488 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U24">
-        <f>IF('vocational-rates'!V24 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F517 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V24">
-        <f>IF('vocational-rates'!W24 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F546 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W24">
-        <f>IF('vocational-rates'!X24 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F575 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X24">
-        <f>IF('vocational-rates'!Y24 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F604 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <f>IF('vocational-rates'!Z24 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F633 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <f>IF('vocational-rates'!AA24 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F662 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <f>IF('vocational-rates'!AB24 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F691 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <f>IF('vocational-rates'!AC24 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F720 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <f>IF('vocational-rates'!AD24 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F749 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <f>IF('vocational-rates'!AE24 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F778 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <f>IF('vocational-rates'!AF24 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F807 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <f>IF('vocational-rates'!AG24 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F836 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <f>IF('vocational-rates'!AH24 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F865 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <f>IF('vocational-rates'!AI24 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F894 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <f>IF('vocational-rates'!AJ24 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F923 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <f>IF('vocational-rates'!AK24 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F952 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <f>IF('vocational-rates'!AL24 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F981 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <f>IF('vocational-rates'!AM24 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1010 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <f>IF('vocational-rates'!AN24 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1039 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <f>IF('vocational-rates'!AO24 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1068 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <f>IF('vocational-rates'!AP24 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1097 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <f>IF('vocational-rates'!AQ24 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1126 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <f>IF('vocational-rates'!AR24 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1155 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <f>IF('vocational-rates'!AS24 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1184 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <f>IF('vocational-rates'!AT24 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1213 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <f>IF('vocational-rates'!AU24 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1242 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <f>IF('vocational-rates'!AV24 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1271 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <f>IF('vocational-rates'!AW24 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1300 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <f>IF('vocational-rates'!AX24 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1329 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <f>IF('vocational-rates'!AY24 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1358 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY24">
-        <f>IF('vocational-rates'!AZ24 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1387 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <f>IF('vocational-rates'!BA24 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1416 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6018,200 +6020,200 @@
         <v>62</v>
       </c>
       <c r="D25">
-        <f>IF('vocational-rates'!E25 &gt; 'vocational-rates'!E$30, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E25">
         <f>IF('vocational-rates'!F25 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="E25">
+        <f>IF('vocational-rates'!F54 &gt; 'vocational-rates'!F$59, 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="F25">
-        <f>IF('vocational-rates'!G25 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F83 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f>IF('vocational-rates'!H25 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F112 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H25">
-        <f>IF('vocational-rates'!I25 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F141 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I25">
-        <f>IF('vocational-rates'!J25 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F170 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J25">
-        <f>IF('vocational-rates'!K25 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F199 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K25">
-        <f>IF('vocational-rates'!L25 &gt; 'vocational-rates'!L$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F228 &gt; 'vocational-rates'!F$233, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="L25">
-        <f>IF('vocational-rates'!M25 &gt; 'vocational-rates'!M$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F257 &gt; 'vocational-rates'!F$262, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="M25">
-        <f>IF('vocational-rates'!N25 &gt; 'vocational-rates'!N$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F286 &gt; 'vocational-rates'!F$291, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="N25">
-        <f>IF('vocational-rates'!O25 &gt; 'vocational-rates'!O$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F315 &gt; 'vocational-rates'!F$320, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="O25">
-        <f>IF('vocational-rates'!P25 &gt; 'vocational-rates'!P$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F344 &gt; 'vocational-rates'!F$349, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P25">
-        <f>IF('vocational-rates'!Q25 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F373 &gt; 'vocational-rates'!F$378, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF('vocational-rates'!R25 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F402 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R25">
-        <f>IF('vocational-rates'!S25 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F431 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S25">
-        <f>IF('vocational-rates'!T25 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F460 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T25">
-        <f>IF('vocational-rates'!U25 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F489 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U25">
-        <f>IF('vocational-rates'!V25 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F518 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V25">
-        <f>IF('vocational-rates'!W25 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F547 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W25">
-        <f>IF('vocational-rates'!X25 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F576 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X25">
-        <f>IF('vocational-rates'!Y25 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F605 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <f>IF('vocational-rates'!Z25 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F634 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <f>IF('vocational-rates'!AA25 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F663 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <f>IF('vocational-rates'!AB25 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F692 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <f>IF('vocational-rates'!AC25 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F721 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <f>IF('vocational-rates'!AD25 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F750 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <f>IF('vocational-rates'!AE25 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F779 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <f>IF('vocational-rates'!AF25 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F808 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <f>IF('vocational-rates'!AG25 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F837 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <f>IF('vocational-rates'!AH25 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F866 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <f>IF('vocational-rates'!AI25 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F895 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <f>IF('vocational-rates'!AJ25 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F924 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <f>IF('vocational-rates'!AK25 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F953 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <f>IF('vocational-rates'!AL25 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F982 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <f>IF('vocational-rates'!AM25 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1011 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <f>IF('vocational-rates'!AN25 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1040 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <f>IF('vocational-rates'!AO25 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1069 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <f>IF('vocational-rates'!AP25 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1098 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <f>IF('vocational-rates'!AQ25 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1127 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <f>IF('vocational-rates'!AR25 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1156 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <f>IF('vocational-rates'!AS25 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1185 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <f>IF('vocational-rates'!AT25 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1214 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <f>IF('vocational-rates'!AU25 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1243 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU25">
-        <f>IF('vocational-rates'!AV25 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1272 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <f>IF('vocational-rates'!AW25 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1301 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <f>IF('vocational-rates'!AX25 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1330 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX25">
-        <f>IF('vocational-rates'!AY25 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1359 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY25">
-        <f>IF('vocational-rates'!AZ25 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1388 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ25">
-        <f>IF('vocational-rates'!BA25 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1417 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6225,200 +6227,200 @@
         <v>62</v>
       </c>
       <c r="D26">
-        <f>IF('vocational-rates'!E26 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F26 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>IF('vocational-rates'!F26 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F55 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>IF('vocational-rates'!G26 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F84 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>IF('vocational-rates'!H26 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F113 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF('vocational-rates'!I26 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F142 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF('vocational-rates'!J26 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F171 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>IF('vocational-rates'!K26 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F200 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>IF('vocational-rates'!L26 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F229 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>IF('vocational-rates'!M26 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F258 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>IF('vocational-rates'!N26 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F287 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>IF('vocational-rates'!O26 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F316 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>IF('vocational-rates'!P26 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F345 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>IF('vocational-rates'!Q26 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F374 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>IF('vocational-rates'!R26 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F403 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R26">
-        <f>IF('vocational-rates'!S26 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F432 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S26">
-        <f>IF('vocational-rates'!T26 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F461 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T26">
-        <f>IF('vocational-rates'!U26 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F490 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U26">
-        <f>IF('vocational-rates'!V26 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F519 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V26">
-        <f>IF('vocational-rates'!W26 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F548 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W26">
-        <f>IF('vocational-rates'!X26 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F577 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X26">
-        <f>IF('vocational-rates'!Y26 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F606 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <f>IF('vocational-rates'!Z26 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F635 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <f>IF('vocational-rates'!AA26 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F664 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <f>IF('vocational-rates'!AB26 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F693 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <f>IF('vocational-rates'!AC26 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F722 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <f>IF('vocational-rates'!AD26 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F751 &gt; 'vocational-rates'!F$755, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <f>IF('vocational-rates'!AE26 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F780 &gt; 'vocational-rates'!F$784, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <f>IF('vocational-rates'!AF26 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F809 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <f>IF('vocational-rates'!AG26 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F838 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <f>IF('vocational-rates'!AH26 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F867 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <f>IF('vocational-rates'!AI26 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F896 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <f>IF('vocational-rates'!AJ26 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F925 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <f>IF('vocational-rates'!AK26 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F954 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <f>IF('vocational-rates'!AL26 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F983 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <f>IF('vocational-rates'!AM26 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1012 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <f>IF('vocational-rates'!AN26 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1041 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <f>IF('vocational-rates'!AO26 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1070 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <f>IF('vocational-rates'!AP26 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1099 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <f>IF('vocational-rates'!AQ26 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1128 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <f>IF('vocational-rates'!AR26 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1157 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <f>IF('vocational-rates'!AS26 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1186 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <f>IF('vocational-rates'!AT26 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1215 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <f>IF('vocational-rates'!AU26 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1244 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <f>IF('vocational-rates'!AV26 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1273 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <f>IF('vocational-rates'!AW26 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1302 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <f>IF('vocational-rates'!AX26 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1331 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <f>IF('vocational-rates'!AY26 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1360 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY26">
-        <f>IF('vocational-rates'!AZ26 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1389 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ26">
-        <f>IF('vocational-rates'!BA26 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1418 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6432,199 +6434,199 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <f>IF('vocational-rates'!E27 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F27 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF('vocational-rates'!F27 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F56 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>IF('vocational-rates'!G27 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F85 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>IF('vocational-rates'!H27 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F114 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF('vocational-rates'!I27 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F143 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF('vocational-rates'!J27 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F172 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>IF('vocational-rates'!K27 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F201 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>IF('vocational-rates'!L27 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F230 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>IF('vocational-rates'!M27 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F259 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>IF('vocational-rates'!N27 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F288 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>IF('vocational-rates'!O27 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F317 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>IF('vocational-rates'!P27 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F346 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>IF('vocational-rates'!Q27 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F375 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>IF('vocational-rates'!R27 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F404 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>IF('vocational-rates'!S27 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F433 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>IF('vocational-rates'!T27 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F462 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>IF('vocational-rates'!U27 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F491 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>IF('vocational-rates'!V27 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F520 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>IF('vocational-rates'!W27 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F549 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>IF('vocational-rates'!X27 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F578 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>IF('vocational-rates'!Y27 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F607 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f>IF('vocational-rates'!Z27 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F636 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>IF('vocational-rates'!AA27 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F665 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f>IF('vocational-rates'!AB27 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F694 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>IF('vocational-rates'!AC27 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F723 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>IF('vocational-rates'!AD27 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F752 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f>IF('vocational-rates'!AE27 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F781 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f>IF('vocational-rates'!AF27 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F810 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF27">
-        <f>IF('vocational-rates'!AG27 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F839 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG27">
-        <f>IF('vocational-rates'!AH27 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F868 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f>IF('vocational-rates'!AI27 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F897 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI27">
-        <f>IF('vocational-rates'!AJ27 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F926 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ27">
-        <f>IF('vocational-rates'!AK27 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F955 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f>IF('vocational-rates'!AL27 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F984 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL27">
-        <f>IF('vocational-rates'!AM27 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1013 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM27">
-        <f>IF('vocational-rates'!AN27 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1042 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f>IF('vocational-rates'!AO27 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1071 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO27">
-        <f>IF('vocational-rates'!AP27 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1100 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP27">
-        <f>IF('vocational-rates'!AQ27 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1129 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ27">
-        <f>IF('vocational-rates'!AR27 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1158 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR27">
-        <f>IF('vocational-rates'!AS27 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1187 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS27">
-        <f>IF('vocational-rates'!AT27 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1216 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT27">
-        <f>IF('vocational-rates'!AU27 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1245 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU27">
-        <f>IF('vocational-rates'!AV27 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1274 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AV27">
-        <f>IF('vocational-rates'!AW27 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1303 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AW27">
-        <f>IF('vocational-rates'!AX27 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1332 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX27">
-        <f>IF('vocational-rates'!AY27 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1361 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY27">
-        <f>IF('vocational-rates'!AZ27 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1390 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ27">
-        <f>IF('vocational-rates'!BA27 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1419 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6639,199 +6641,199 @@
         <v>62</v>
       </c>
       <c r="D28">
-        <f>IF('vocational-rates'!E28 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F28 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IF('vocational-rates'!F28 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F57 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>IF('vocational-rates'!G28 &gt; 'vocational-rates'!G$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F86 &gt; 'vocational-rates'!F$88, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="G28">
-        <f>IF('vocational-rates'!H28 &gt; 'vocational-rates'!H$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F115 &gt; 'vocational-rates'!F$117, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="H28">
-        <f>IF('vocational-rates'!I28 &gt; 'vocational-rates'!I$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F144 &gt; 'vocational-rates'!F$146, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="I28">
-        <f>IF('vocational-rates'!J28 &gt; 'vocational-rates'!J$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F173 &gt; 'vocational-rates'!F$175, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="J28">
-        <f>IF('vocational-rates'!K28 &gt; 'vocational-rates'!K$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F202 &gt; 'vocational-rates'!F$204, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K28">
-        <f>IF('vocational-rates'!L28 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F231 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>IF('vocational-rates'!M28 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F260 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>IF('vocational-rates'!N28 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F289 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>IF('vocational-rates'!O28 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F318 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>IF('vocational-rates'!P28 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F347 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>IF('vocational-rates'!Q28 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F376 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>IF('vocational-rates'!R28 &gt; 'vocational-rates'!R$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F405 &gt; 'vocational-rates'!F$407, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="R28">
-        <f>IF('vocational-rates'!S28 &gt; 'vocational-rates'!S$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F434 &gt; 'vocational-rates'!F$436, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="S28">
-        <f>IF('vocational-rates'!T28 &gt; 'vocational-rates'!T$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F463 &gt; 'vocational-rates'!F$465, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="T28">
-        <f>IF('vocational-rates'!U28 &gt; 'vocational-rates'!U$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F492 &gt; 'vocational-rates'!F$494, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="U28">
-        <f>IF('vocational-rates'!V28 &gt; 'vocational-rates'!V$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F521 &gt; 'vocational-rates'!F$523, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="V28">
-        <f>IF('vocational-rates'!W28 &gt; 'vocational-rates'!W$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F550 &gt; 'vocational-rates'!F$552, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="W28">
-        <f>IF('vocational-rates'!X28 &gt; 'vocational-rates'!X$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F579 &gt; 'vocational-rates'!F$581, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="X28">
-        <f>IF('vocational-rates'!Y28 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F608 &gt; 'vocational-rates'!F$610, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <f>IF('vocational-rates'!Z28 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F637 &gt; 'vocational-rates'!F$639, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <f>IF('vocational-rates'!AA28 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F666 &gt; 'vocational-rates'!F$668, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <f>IF('vocational-rates'!AB28 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F695 &gt; 'vocational-rates'!F$697, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <f>IF('vocational-rates'!AC28 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F724 &gt; 'vocational-rates'!F$726, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <f>IF('vocational-rates'!AD28 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F753 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD28">
-        <f>IF('vocational-rates'!AE28 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F782 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f>IF('vocational-rates'!AF28 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F811 &gt; 'vocational-rates'!F$813, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <f>IF('vocational-rates'!AG28 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F840 &gt; 'vocational-rates'!F$842, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <f>IF('vocational-rates'!AH28 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F869 &gt; 'vocational-rates'!F$871, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <f>IF('vocational-rates'!AI28 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F898 &gt; 'vocational-rates'!F$900, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <f>IF('vocational-rates'!AJ28 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F927 &gt; 'vocational-rates'!F$929, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <f>IF('vocational-rates'!AK28 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F956 &gt; 'vocational-rates'!F$958, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <f>IF('vocational-rates'!AL28 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F985 &gt; 'vocational-rates'!F$987, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <f>IF('vocational-rates'!AM28 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1014 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <f>IF('vocational-rates'!AN28 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1043 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <f>IF('vocational-rates'!AO28 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1072 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <f>IF('vocational-rates'!AP28 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1101 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <f>IF('vocational-rates'!AQ28 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1130 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <f>IF('vocational-rates'!AR28 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1159 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <f>IF('vocational-rates'!AS28 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1188 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <f>IF('vocational-rates'!AT28 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1217 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <f>IF('vocational-rates'!AU28 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1246 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <f>IF('vocational-rates'!AV28 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1275 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <f>IF('vocational-rates'!AW28 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1304 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <f>IF('vocational-rates'!AX28 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1333 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AX28">
-        <f>IF('vocational-rates'!AY28 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1362 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AY28">
-        <f>IF('vocational-rates'!AZ28 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1391 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AZ28">
-        <f>IF('vocational-rates'!BA28 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1420 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6846,200 +6848,200 @@
         <v>62</v>
       </c>
       <c r="D29">
-        <f>IF('vocational-rates'!E29 &gt; 'vocational-rates'!E$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F29 &gt; 'vocational-rates'!F$30, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>IF('vocational-rates'!F29 &gt; 'vocational-rates'!F$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F58 &gt; 'vocational-rates'!F$59, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>IF('vocational-rates'!G29 &gt; 'vocational-rates'!G$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F87 &gt; 'vocational-rates'!F$88, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>IF('vocational-rates'!H29 &gt; 'vocational-rates'!H$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F116 &gt; 'vocational-rates'!F$117, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF('vocational-rates'!I29 &gt; 'vocational-rates'!I$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F145 &gt; 'vocational-rates'!F$146, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF('vocational-rates'!J29 &gt; 'vocational-rates'!J$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F174 &gt; 'vocational-rates'!F$175, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>IF('vocational-rates'!K29 &gt; 'vocational-rates'!K$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F203 &gt; 'vocational-rates'!F$204, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>IF('vocational-rates'!L29 &gt; 'vocational-rates'!L$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F232 &gt; 'vocational-rates'!F$233, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>IF('vocational-rates'!M29 &gt; 'vocational-rates'!M$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F261 &gt; 'vocational-rates'!F$262, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>IF('vocational-rates'!N29 &gt; 'vocational-rates'!N$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F290 &gt; 'vocational-rates'!F$291, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>IF('vocational-rates'!O29 &gt; 'vocational-rates'!O$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F319 &gt; 'vocational-rates'!F$320, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>IF('vocational-rates'!P29 &gt; 'vocational-rates'!P$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F348 &gt; 'vocational-rates'!F$349, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>IF('vocational-rates'!Q29 &gt; 'vocational-rates'!Q$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F377 &gt; 'vocational-rates'!F$378, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>IF('vocational-rates'!R29 &gt; 'vocational-rates'!R$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F406 &gt; 'vocational-rates'!F$407, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>IF('vocational-rates'!S29 &gt; 'vocational-rates'!S$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F435 &gt; 'vocational-rates'!F$436, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>IF('vocational-rates'!T29 &gt; 'vocational-rates'!T$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F464 &gt; 'vocational-rates'!F$465, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>IF('vocational-rates'!U29 &gt; 'vocational-rates'!U$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F493 &gt; 'vocational-rates'!F$494, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>IF('vocational-rates'!V29 &gt; 'vocational-rates'!V$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F522 &gt; 'vocational-rates'!F$523, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>IF('vocational-rates'!W29 &gt; 'vocational-rates'!W$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F551 &gt; 'vocational-rates'!F$552, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>IF('vocational-rates'!X29 &gt; 'vocational-rates'!X$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F580 &gt; 'vocational-rates'!F$581, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>IF('vocational-rates'!Y29 &gt; 'vocational-rates'!Y$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F609 &gt; 'vocational-rates'!F$610, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f>IF('vocational-rates'!Z29 &gt; 'vocational-rates'!Z$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F638 &gt; 'vocational-rates'!F$639, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f>IF('vocational-rates'!AA29 &gt; 'vocational-rates'!AA$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F667 &gt; 'vocational-rates'!F$668, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f>IF('vocational-rates'!AB29 &gt; 'vocational-rates'!AB$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F696 &gt; 'vocational-rates'!F$697, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f>IF('vocational-rates'!AC29 &gt; 'vocational-rates'!AC$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F725 &gt; 'vocational-rates'!F$726, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f>IF('vocational-rates'!AD29 &gt; 'vocational-rates'!AD$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F754 &gt; 'vocational-rates'!F$755, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f>IF('vocational-rates'!AE29 &gt; 'vocational-rates'!AE$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F783 &gt; 'vocational-rates'!F$784, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AE29">
-        <f>IF('vocational-rates'!AF29 &gt; 'vocational-rates'!AF$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F812 &gt; 'vocational-rates'!F$813, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AF29">
-        <f>IF('vocational-rates'!AG29 &gt; 'vocational-rates'!AG$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F841 &gt; 'vocational-rates'!F$842, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AG29">
-        <f>IF('vocational-rates'!AH29 &gt; 'vocational-rates'!AH$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F870 &gt; 'vocational-rates'!F$871, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f>IF('vocational-rates'!AI29 &gt; 'vocational-rates'!AI$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F899 &gt; 'vocational-rates'!F$900, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f>IF('vocational-rates'!AJ29 &gt; 'vocational-rates'!AJ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F928 &gt; 'vocational-rates'!F$929, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f>IF('vocational-rates'!AK29 &gt; 'vocational-rates'!AK$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F957 &gt; 'vocational-rates'!F$958, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f>IF('vocational-rates'!AL29 &gt; 'vocational-rates'!AL$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F986 &gt; 'vocational-rates'!F$987, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f>IF('vocational-rates'!AM29 &gt; 'vocational-rates'!AM$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1015 &gt; 'vocational-rates'!F$1016, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f>IF('vocational-rates'!AN29 &gt; 'vocational-rates'!AN$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1044 &gt; 'vocational-rates'!F$1045, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f>IF('vocational-rates'!AO29 &gt; 'vocational-rates'!AO$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1073 &gt; 'vocational-rates'!F$1074, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AO29">
-        <f>IF('vocational-rates'!AP29 &gt; 'vocational-rates'!AP$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1102 &gt; 'vocational-rates'!F$1103, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f>IF('vocational-rates'!AQ29 &gt; 'vocational-rates'!AQ$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1131 &gt; 'vocational-rates'!F$1132, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f>IF('vocational-rates'!AR29 &gt; 'vocational-rates'!AR$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1160 &gt; 'vocational-rates'!F$1161, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AR29">
-        <f>IF('vocational-rates'!AS29 &gt; 'vocational-rates'!AS$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1189 &gt; 'vocational-rates'!F$1190, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f>IF('vocational-rates'!AT29 &gt; 'vocational-rates'!AT$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1218 &gt; 'vocational-rates'!F$1219, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f>IF('vocational-rates'!AU29 &gt; 'vocational-rates'!AU$30, 1, 0)</f>
+        <f>IF('vocational-rates'!F1247 &gt; 'vocational-rates'!F$1248, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AU29">
-        <f>IF('vocational-rates'!AV29 &gt; 'vocational-rates'!AV$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1276 &gt; 'vocational-rates'!F$1277, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <f>IF('vocational-rates'!AW29 &gt; 'vocational-rates'!AW$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1305 &gt; 'vocational-rates'!F$1306, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <f>IF('vocational-rates'!AX29 &gt; 'vocational-rates'!AX$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1334 &gt; 'vocational-rates'!F$1335, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <f>IF('vocational-rates'!AY29 &gt; 'vocational-rates'!AY$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1363 &gt; 'vocational-rates'!F$1364, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <f>IF('vocational-rates'!AZ29 &gt; 'vocational-rates'!AZ$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1392 &gt; 'vocational-rates'!F$1393, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <f>IF('vocational-rates'!BA29 &gt; 'vocational-rates'!BA$30, 1, 0)</f>
-        <v>1</v>
+        <f>IF('vocational-rates'!F1421 &gt; 'vocational-rates'!F$1422, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7081,7 +7083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
